--- a/data/trans_camb/P28A_1_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P28A_1_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-50,38</t>
+          <t>-56,91</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-30,75</t>
+          <t>-29,55</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-32,79</t>
+          <t>-30,91</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-29,13</t>
+          <t>-35,46</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-33,32</t>
+          <t>-35,05</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-33,21</t>
+          <t>-49,31</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-39,35</t>
+          <t>-45,61</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-32,05</t>
+          <t>-32,38</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-33,06</t>
+          <t>-40,36</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-64,24; -37,12</t>
+          <t>-75,4; -35,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-45,87; -7,1</t>
+          <t>-55,42; 11,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-48,52; -6,87</t>
+          <t>-59,56; 9,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-41,23; -15,42</t>
+          <t>-54,28; -16,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-45,12; -20,34</t>
+          <t>-53,74; -16,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-50,15; -1,1</t>
+          <t>-65,01; -29,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-48,24; -29,09</t>
+          <t>-59,82; -32,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-42,49; -19,87</t>
+          <t>-47,52; -13,64</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-46,42; -14,08</t>
+          <t>-57,5; -15,97</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-79,85%</t>
+          <t>-81,02%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-48,73%</t>
+          <t>-42,07%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-51,96%</t>
+          <t>-44,01%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-46,79%</t>
+          <t>-54,33%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-53,5%</t>
+          <t>-53,71%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-53,34%</t>
+          <t>-75,56%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-62,81%</t>
+          <t>-67,48%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-51,16%</t>
+          <t>-47,9%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-52,77%</t>
+          <t>-59,71%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-90,03; -63,69</t>
+          <t>-94,31; -57,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-67,74; -7,76</t>
+          <t>-72,87; 30,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-72,78; -10,35</t>
+          <t>-79,27; 29,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-62,01; -27,74</t>
+          <t>-72,57; -28,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-68,23; -35,65</t>
+          <t>-73,82; -29,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-77,09; -0,46</t>
+          <t>-90,29; -52,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-73,16; -49,94</t>
+          <t>-82,57; -53,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-64,53; -34,07</t>
+          <t>-66,81; -19,78</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-71,48; -22,07</t>
+          <t>-80,2; -20,85</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-30,33</t>
+          <t>-32,69</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-28,73</t>
+          <t>-39,1</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-30,28</t>
+          <t>-36,58</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-26,31</t>
+          <t>-25,6</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-24,17</t>
+          <t>-26,11</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-32,81</t>
+          <t>-32,37</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-28,2</t>
+          <t>-29,03</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-26,55</t>
+          <t>-32,47</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-31,52</t>
+          <t>-34,33</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-39,35; -21,83</t>
+          <t>-44,58; -22,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-37,48; -18,9</t>
+          <t>-50,11; -28,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-40,32; -19,56</t>
+          <t>-48,38; -21,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-34,1; -18,16</t>
+          <t>-35,67; -15,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-31,96; -16,34</t>
+          <t>-35,85; -15,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-39,86; -24,21</t>
+          <t>-41,45; -22,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-33,81; -22,23</t>
+          <t>-36,1; -20,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-33,18; -20,27</t>
+          <t>-39,96; -25,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-37,18; -24,61</t>
+          <t>-42,87; -26,18</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-56,19%</t>
+          <t>-54,38%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-53,23%</t>
+          <t>-65,04%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-56,1%</t>
+          <t>-60,85%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-47,84%</t>
+          <t>-47,88%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-43,94%</t>
+          <t>-48,82%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-59,66%</t>
+          <t>-60,53%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-51,75%</t>
+          <t>-51,21%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-48,72%</t>
+          <t>-57,29%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-57,83%</t>
+          <t>-60,56%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-67,55; -44,19</t>
+          <t>-68,63; -40,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-65,11; -36,39</t>
+          <t>-76,03; -52,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-69,08; -38,78</t>
+          <t>-74,52; -37,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-58,58; -35,48</t>
+          <t>-60,35; -30,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-54,75; -31,49</t>
+          <t>-60,91; -32,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-68,58; -47,89</t>
+          <t>-71,36; -46,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-59,12; -42,29</t>
+          <t>-60,21; -39,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-57,57; -40,03</t>
+          <t>-65,82; -45,81</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-65,98; -46,93</t>
+          <t>-70,38; -47,91</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-34,29</t>
+          <t>-34,94</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-31,56</t>
+          <t>-32,3</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-39,84</t>
+          <t>-37,51</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-33,52</t>
+          <t>-35,49</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-24,87</t>
+          <t>-29,7</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-38,0</t>
+          <t>-37,49</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-33,87</t>
+          <t>-35,24</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-28,04</t>
+          <t>-30,88</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-38,91</t>
+          <t>-37,53</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-43,25; -24,96</t>
+          <t>-47,05; -23,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-40,33; -22,08</t>
+          <t>-45,09; -20,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-48,08; -30,73</t>
+          <t>-50,05; -26,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-42,16; -24,99</t>
+          <t>-45,44; -25,3</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-33,93; -15,28</t>
+          <t>-39,89; -19,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-45,71; -29,65</t>
+          <t>-47,16; -27,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-40,06; -27,83</t>
+          <t>-42,35; -27,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-34,56; -21,42</t>
+          <t>-38,45; -23,14</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-45,4; -32,72</t>
+          <t>-44,84; -30,05</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-59,01%</t>
+          <t>-61,52%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-54,31%</t>
+          <t>-56,86%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-68,56%</t>
+          <t>-66,04%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-56,1%</t>
+          <t>-60,14%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-41,63%</t>
+          <t>-50,32%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-63,6%</t>
+          <t>-63,53%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-57,42%</t>
+          <t>-60,72%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-47,54%</t>
+          <t>-53,21%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-65,97%</t>
+          <t>-64,67%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-70,27; -46,44</t>
+          <t>-74,16; -45,13</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-65,0; -39,74</t>
+          <t>-71,28; -41,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-77,85; -57,07</t>
+          <t>-78,34; -50,61</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-66,28; -45,2</t>
+          <t>-70,96; -46,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-52,99; -27,46</t>
+          <t>-62,77; -35,54</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-72,58; -53,12</t>
+          <t>-74,42; -50,43</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-64,79; -49,2</t>
+          <t>-68,85; -50,43</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-55,94; -37,78</t>
+          <t>-63,2; -42,68</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-71,9; -56,47</t>
+          <t>-72,5; -54,71</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-35,14</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-30,15</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-33,88</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-29,39</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-25,94</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-34,51</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-32,1</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-28,05</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-34,22</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-41,27; -29,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-36,23; -23,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-40,75; -26,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-34,44; -23,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-31,24; -20,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-39,55; -25,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-35,92; -28,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-31,77; -23,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-38,56; -28,63</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-61,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-52,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-59,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-50,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-44,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-59,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-55,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-48,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-59,55%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,58 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-68,17; -53,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-61,0; -42,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-68,36; -48,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-57,39; -43,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-51,97; -36,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-66,47; -42,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-60,84; -50,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-54,08; -42,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-65,16; -50,6</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-36,94</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-35,22</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-35,91</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-31,03</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-28,81</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-36,86</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-33,77</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-31,83</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-36,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-44,48; -28,6</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-43,72; -26,04</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-44,32; -24,84</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-37,73; -24,22</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-34,84; -22,01</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-43,43; -30,59</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-38,69; -28,55</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-36,84; -25,94</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-41,42; -30,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-61,31%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-58,47%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-59,61%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-54,09%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-50,22%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-64,26%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-57,53%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-54,22%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-61,88%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-69,81; -51,24</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-68,02; -44,92</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-70,29; -42,66</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-62,66; -44,97</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-58,26; -40,02</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-72,15; -55,96</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-63,7; -51,0</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-60,52; -46,34</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-68,52; -52,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
